--- a/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_022.xlsx
+++ b/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_022.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295024EA2.11) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell integrity</t>
-  </si>
-  <si>
-    <t>(295018AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Isolation of non-essential heat loads</t>
-  </si>
-  <si>
-    <t>(295016AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Disabling/transferring control room controls</t>
-  </si>
-  <si>
-    <t>(295023AA1.06) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Nuclear instrumentation</t>
-  </si>
-  <si>
-    <t>(600000AK2.08) Knowledge of the relationship between the (APE 24) PLANT FIRE ON SITE and the following systems or components: (CFR: 41.7 / 45.7) Portable fire suppression systems</t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295005AA2.04) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295025EK1.07) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Pressure control strategies</t>
-  </si>
-  <si>
-    <t>(295004AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Load shedding</t>
-  </si>
-  <si>
-    <t>(295001AA1.10) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295037EK2.13) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) Systems used for alternate boron injection</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295021AA2.02) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) RHR/shutdown cooling system flow</t>
+    <t>(295038EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) Reactor shutdown/SCRAM</t>
+  </si>
+  <si>
+    <t>(295003AA1.03) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) Decay heat removal systems</t>
+  </si>
+  <si>
+    <t>(295026EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295019AK2.07) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Condensate system</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(295005AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Reactor level control</t>
+  </si>
+  <si>
+    <t>(295030EK3.07) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) NPSH/vortex limits</t>
+  </si>
+  <si>
+    <t>(295001AA1.05) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) Recirculation flow control system</t>
+  </si>
+  <si>
+    <t>(295037EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
+  </si>
+  <si>
+    <t>(295006AK2.05) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) CRD mechanism</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
   </si>
   <si>
     <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
   </si>
   <si>
-    <t>(295038EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) System isolations</t>
-  </si>
-  <si>
-    <t>(295006AA1.06) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) CRD hydraulic system</t>
-  </si>
-  <si>
-    <t>(700000AK2.09) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) AC electrical distribution system</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295026EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295033EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.5 / 45.6) Anticipated/emergency depressurization</t>
-  </si>
-  <si>
-    <t>(295029EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(500000EK2.06) Knowledge of the relationship between the (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION and the following systems or components: (CFR: 41.7 / 45.8) Wetwell spray</t>
-  </si>
-  <si>
-    <t>(295014) (APE 14) INADVERTENT REACTIVITY ADDITION (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295036EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Water level in the affected area</t>
-  </si>
-  <si>
-    <t>(295035EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Secondary containment integrity</t>
-  </si>
-  <si>
-    <t>(212000A3.10) Ability to monitor automatic operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) Bypassing SCRAM signals</t>
-  </si>
-  <si>
-    <t>(215004K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
-  </si>
-  <si>
-    <t>(205000K4.08) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) Prevent inadvertent vessel draining</t>
-  </si>
-  <si>
-    <t>(400000A4.01) Ability to manually operate and/or monitor the (SF8 CCS) COMPONENT COOLING WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) CCW indications and control</t>
-  </si>
-  <si>
-    <t>(218000A2.01) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Steam line break</t>
-  </si>
-  <si>
-    <t>(262001K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) DC power</t>
-  </si>
-  <si>
-    <t>(217000K5.10) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.5 / 45.3) Reactor level control</t>
-  </si>
-  <si>
-    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.4.50) EMERGENCY PROCEDURES / PLAN Ability to verify system alarm setpoints and operate controls identified in the alarm response procedure (CFR: 41.10 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(300000K2.02) (SF8 IA) INSTRUMENT AIR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Emergency air compressor</t>
-  </si>
-  <si>
-    <t>(239002A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.5 / 45.5) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(262002K3.15) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Main turbine generator and auxiliary systems</t>
-  </si>
-  <si>
-    <t>(261000A3.02) Ability to monitor automatic operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.7 / 45.7) Fan start</t>
-  </si>
-  <si>
-    <t>(264000K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Component cooling water system</t>
-  </si>
-  <si>
-    <t>(263000K4.01) Knowledge of (SF6 DC) DC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Manual/automatic transfers</t>
-  </si>
-  <si>
-    <t>(209001A4.15) Ability to manually operate and/or monitor the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Initiation reset</t>
-  </si>
-  <si>
-    <t>(203000A2.03) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve closures due to malfunction(s)</t>
-  </si>
-  <si>
-    <t>(215003K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.7 / 45.7) Detector drive motor</t>
-  </si>
-  <si>
-    <t>(259002K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Pump runout</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (291004K1.02) PUMPS (CFR: 41.3) (CENTRIFUGAL) Reasons for venting a centrifugal pump</t>
-  </si>
-  <si>
-    <t>(510000K2.02) (SF4 SWS*) SERVICE WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Service water system valves (Class 1E)</t>
-  </si>
-  <si>
-    <t>(211000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Pump discharge pressure</t>
-  </si>
-  <si>
-    <t>(215005K3.08) Knowledge of the effect that a loss or malfunction of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Plant process computer parameter display systems</t>
-  </si>
-  <si>
-    <t>(212000A3.09) Ability to monitor automatic operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) System actuation</t>
-  </si>
-  <si>
-    <t>(215004K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RMCS (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(205000K4.01) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) High temperature isolation /protection</t>
-  </si>
-  <si>
-    <t>(400000A2.05) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of service water system</t>
-  </si>
-  <si>
-    <t>(259001A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 FWS) FEEDWATER SYSTEM including: (CFR: 41.5 / 45.5) Feedwater flow/pressure</t>
-  </si>
-  <si>
-    <t>(201001K3.05) Knowledge of the effect that a loss or malfunction of the (SF1 CRDH) CRD HYDRAULIC SYSTEM will have on the following systems or system parameters: (CFR: 41.5-7 / 45.1-3 / 45.5-6 / 45.8 / 45.10 / 45.12) Reactor water cleanup pumps</t>
-  </si>
-  <si>
-    <t>(241000A3.13) Ability to monitor automatic operation of the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM including: (CFR: 41.7 / 45.7) Feedwater heater isolation</t>
-  </si>
-  <si>
-    <t>(202002K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Average power range monitor/local power range monitor system</t>
-  </si>
-  <si>
-    <t>(223001K4.10) Knowledge of (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES design features and/or interlocks that provide for the following: (CFR: 41.7) Penetration cooling</t>
-  </si>
-  <si>
-    <t>(239003A4.09) Ability to manually operate and/or monitor the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) System reset</t>
-  </si>
-  <si>
-    <t>(271000A2.04) Ability to (a) predict the impacts of the following on the (SF9 OG) OFFGAS SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6 / 45.8) Offgas system high radiation</t>
-  </si>
-  <si>
-    <t>(219000K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE: (CFR: 41.7 / 45.7) DC electrical distribution system</t>
-  </si>
-  <si>
-    <t>(202001K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1, SF4 RS) RECIRCULATION SYSTEM: (CFR: 41.5 / 45.3) Jet pump operation (BWR 3, 4, 5, 6)</t>
-  </si>
-  <si>
-    <t>(226001) (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE  (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(245000K2.03) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS Knowledge of electrical power supplies to the following: (CFR: 41.7) Amplidyne/exciter</t>
-  </si>
-  <si>
-    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
+    <t>(295016AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Turbine trip</t>
+  </si>
+  <si>
+    <t>(295021AA1.04) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Alternate decay heat removal systems</t>
+  </si>
+  <si>
+    <t>(295027EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
+  </si>
+  <si>
+    <t>(295018AK2.06) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Fuel pool cooling and cleanup system</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(600000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 24) PLANT FIRE ON SITE: (CFR: 41.8 / 41.10 / 45.3) Firefighting methods for each type of fire</t>
+  </si>
+  <si>
+    <t>(295023AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Non-coincident SCRAM function</t>
+  </si>
+  <si>
+    <t>(295025EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) Main and reheat steam</t>
+  </si>
+  <si>
+    <t>(295032EK2.07) Knowledge of the relationship between the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Leak detection system</t>
+  </si>
+  <si>
+    <t>(295029) (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL (G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295002AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.8 to 41.10) Loss of heat sink</t>
+  </si>
+  <si>
+    <t>(295036EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.5 / 41.10 / 45.6) Pumping secondary containment sumps</t>
+  </si>
+  <si>
+    <t>(295011AA1.01) Ability to operate and/or monitor the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Containment ventilation/cooling system</t>
+  </si>
+  <si>
+    <t>(295009AA2.02) Ability to determine and/or interpret the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Steam flow/feed flow mismatch</t>
+  </si>
+  <si>
+    <t>(215004A3.04) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Control rod block status</t>
+  </si>
+  <si>
+    <t>(239002A1.11) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(264000K3.04) Knowledge of the effect that a loss or malfunction of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Bus frequency/voltage</t>
+  </si>
+  <si>
+    <t>(205000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.5 / 45.3) System venting</t>
+  </si>
+  <si>
+    <t>(263000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Grounds</t>
+  </si>
+  <si>
+    <t>(215003K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(209002K4.02) Knowledge of (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of overfilling reactor vessel</t>
+  </si>
+  <si>
+    <t>(261000A4.03) Ability to manually operate and/or monitor the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Fan</t>
+  </si>
+  <si>
+    <t>(212000A2.19) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Partial RPS actuation</t>
+  </si>
+  <si>
+    <t>(218000K2.01) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) ADS logic</t>
+  </si>
+  <si>
+    <t>(211000A3.06) Ability to monitor automatic operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.7 / 45.7) RWCU system isolation</t>
+  </si>
+  <si>
+    <t>(262002A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.5 / 45.5) Inverter outputs</t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (291004K1.21) PUMPS (CFR: 41.3) (POSITIVE DISPLACEMENT) Net positive suction head (NSPH) requirements for a positive displacement pump</t>
+  </si>
+  <si>
+    <t>(510000K3.09) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Fire protection system</t>
+  </si>
+  <si>
+    <t>(209001K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(400000K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.7 / 45.7) Control rod drive hydraulic system</t>
+  </si>
+  <si>
+    <t>(223002K1.19) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Component cooling water systems</t>
+  </si>
+  <si>
+    <t>(215005K4.07) Knowledge of (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR design features and/or interlocks that provide for the following: (CFR: 41.7) Flow-biased trip setpoints</t>
+  </si>
+  <si>
+    <t>(262001A4.04) Ability to manually operate and/or monitor the (SF6 AC) AC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Synchronizing of AC sources</t>
+  </si>
+  <si>
+    <t>(203000A2.04) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) AC failures</t>
+  </si>
+  <si>
+    <t>(300000K2.01) (SF8 IA) INSTRUMENT AIR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Instrument air compressor</t>
+  </si>
+  <si>
+    <t>(215004A3.03) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) RPS status</t>
+  </si>
+  <si>
+    <t>(239002A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.5 / 45.5) Suppression pool water temperature</t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(264000K3.03) Knowledge of the effect that a loss or malfunction of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Operationally significant loads</t>
+  </si>
+  <si>
+    <t>(510001A2.01) Ability to (a) predict the impacts of the following on the (SF8 CWS*) CIRCULATING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Pump/Motor failure</t>
+  </si>
+  <si>
+    <t>(239001K2.02) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Main steam line shutoff valves</t>
+  </si>
+  <si>
+    <t>(268000A3.01) Ability to monitor automatic operation of the (SF9 RW) RADWASTE SYSTEM including: (CFR: 41.7 / 45.7) Radiological release isolation valves</t>
+  </si>
+  <si>
+    <t>(215001A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 TIP) TRAVERSING IN CORE PROBE including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(259001) (SF2 FWS) FEEDWATER SYSTEM (291005K1.02) MOTORS AND GENERATORS (CFR: 41.7) Potential consequences of overheating motor insulation or motor bearings</t>
+  </si>
+  <si>
+    <t>(290002K3.09) Knowledge of the effect that a loss or malfunction of the (SF4 RVI) REACTOR VESSEL INTERNALS will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Main steam system</t>
+  </si>
+  <si>
+    <t>(223001K5.09) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES: (CFR: 41.5 / 45.3) Hydrogen production mechanisms</t>
+  </si>
+  <si>
+    <t>(201005K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6): (CFR: 41.7 / 45.7) Intermediate range monitor system</t>
+  </si>
+  <si>
+    <t>(204000K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) PCIS/NSSSS</t>
+  </si>
+  <si>
+    <t>(234000K4.08) Knowledge of (SF8 FH) FUEL HANDLING design features and/or interlocks that provide for the following: (CFR: 41.7) Preventing draining of water from the inclined fuel transfer system</t>
+  </si>
+  <si>
+    <t>(290001A4.11) Ability to manually operate and/or monitor the (SF5 SC) SECONDARY CONTAINMENT in the control room: (CFR: 41.7 / 45.5 to 45.8) System reset</t>
+  </si>
+  <si>
+    <t>(G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
+  </si>
+  <si>
+    <t>(292008K1.20) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (POWER OPERATION) Explain transient and steady-state effects of an increase in core flow on reactor power and void fraction</t>
+  </si>
+  <si>
+    <t>(292004K1.05) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the fuel temperature (Doppler) coefficient of reactivity</t>
+  </si>
+  <si>
+    <t>(293006K1.05) FLUID STATICS AND DYNAMICS (CFR: 41.14) Explain operational implications of fluid/water hammer</t>
+  </si>
+  <si>
+    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
+  </si>
+  <si>
+    <t>(293010K1.05) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the effect of fast neutron irradiation on reactor vessel metals</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295003AA2.02) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Reactor power, pressure, and level</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
+  </si>
+  <si>
+    <t>(295005AA2.08) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Electrical distribution status</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295034EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Ventilation radiation levels</t>
+  </si>
+  <si>
+    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.2.19) EQUIPMENT CONTROL Knowledge of maintenance work order requirements (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(263000A2.04) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Station blackout</t>
+  </si>
+  <si>
+    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(209002A2.19) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal reactor water level</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(202002A2.06) Ability to (a) predict the impacts of the following on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low reactor water level</t>
+  </si>
+  <si>
+    <t>(226001) (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE  (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
+  </si>
+  <si>
+    <t>(233000A2.03) Ability to (a) predict the impacts of the following on the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal surge tank level</t>
+  </si>
+  <si>
+    <t>(G2.1.42) CONDUCT OF OPERATIONS Knowledge of new and spent fuel movement procedures (SRO Only) (CFR: 43.7 / 45.13)</t>
   </si>
   <si>
     <t>(G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
   </si>
   <si>
-    <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
   </si>
   <si>
     <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.39) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities in emergency plan implementing procedures (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(292004K1.15) REACTIVITY COEFFICIENTS (CFR: 41.1) Explain the differences between reactivity coefficients and reactivity defects</t>
-  </si>
-  <si>
-    <t>(292001K1.03) NEUTRONS (CFR: 41.1) Define thermal neutrons</t>
-  </si>
-  <si>
-    <t>(292006K1.02) FISSION PRODUCT POISONS (CFR: 41.1) State the characteristics of xenon-135 as a fission product poison</t>
-  </si>
-  <si>
-    <t>(293006K1.14) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Explain the results of putting centrifugal pumps in parallel or series combinations</t>
-  </si>
-  <si>
-    <t>(293008K1.19) THERMAL HYDRAULICS (CFR: 41.14) (CORE INLET SUBCOOLING) Define core inlet subcooling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(293009K1.26) CORE THERMAL LIMITS (CFR: 41.14) (MCPR) Describe the effects of axial power distribution </t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295024EA2.12) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Safety/relief valves</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295016AA2.01) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(600000AA2.04) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) The fire’s extent of potential operational damage to plant equipment</t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295020AA2.10) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Reactor building radiation</t>
-  </si>
-  <si>
-    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(262001A2.06) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of a plant bus</t>
-  </si>
-  <si>
-    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(209002A2.12) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High suppression pool level</t>
-  </si>
-  <si>
-    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
-  </si>
-  <si>
-    <t>(230000A2.11) Ability to (a) predict the impacts of the following on the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Motor-operated valve failures</t>
-  </si>
-  <si>
-    <t>(215001) (SF7 TIP) TRAVERSING IN CORE PROBE (G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(239001A2.08) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low condenser vacuum </t>
-  </si>
-  <si>
-    <t>(G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station’s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
+    <t>(G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>K2</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>K1</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
     <t>K4</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
     <t>295027</t>
   </si>
   <si>
+    <t>295018</t>
+  </si>
+  <si>
     <t>295024</t>
   </si>
   <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295016</t>
+    <t>600000</t>
   </si>
   <si>
     <t>295023</t>
   </si>
   <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
     <t>295025</t>
   </si>
   <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295033</t>
+    <t>295032</t>
   </si>
   <si>
     <t>295029</t>
   </si>
   <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>295014</t>
+    <t>295002</t>
   </si>
   <si>
     <t>295036</t>
   </si>
   <si>
-    <t>295035</t>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>261000</t>
   </si>
   <si>
     <t>212000</t>
   </si>
   <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>205000</t>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>209001</t>
   </si>
   <si>
     <t>400000</t>
   </si>
   <si>
-    <t>218000</t>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>215005</t>
   </si>
   <si>
     <t>262001</t>
   </si>
   <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>209002</t>
+    <t>203000</t>
   </si>
   <si>
     <t>300000</t>
   </si>
   <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>215005</t>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>215001</t>
   </si>
   <si>
     <t>259001</t>
   </si>
   <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>241000</t>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>295013</t>
   </si>
   <si>
     <t>202002</t>
   </si>
   <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
     <t>226001</t>
   </si>
   <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>239001</t>
+    <t>233000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,7 +1596,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
         <v>108</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1769,7 +1769,7 @@
         <v>3.9</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,7 +1783,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D49" t="s">
         <v>108</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D54" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,7 +1885,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D55" t="s">
         <v>108</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1939,7 +1939,7 @@
         <v>2.7</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D62" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2347,7 +2347,7 @@
         <v>3.6</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D88" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2517,7 +2517,7 @@
         <v>3.6</v>
       </c>
       <c r="D92" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D94" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
